--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-017 Solicitud Compra de Bienes y Servicios.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-017 Solicitud Compra de Bienes y Servicios.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mhs5yu3axBhQJZhN5GIZIWBzJXSVw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mh5d53WnXTSPvMnrM/xGj/RuRy3FA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -1263,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1382,9 +1382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="22" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1579,7 +1576,7 @@
     <xdr:ext cx="495300" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1607,7 +1604,7 @@
     <xdr:ext cx="933450" cy="590550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1631,7 +1628,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1718,7 +1715,7 @@
       </c>
       <c r="B5" s="29">
         <f>TODAY()</f>
-        <v>43649</v>
+        <v>43656</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -1836,31 +1833,33 @@
       <c r="H12" s="52"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" ht="6.0" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="57" t="s">
+    <row r="13" ht="33.0" customHeight="1">
+      <c r="A13" s="56" t="s">
         <v>20</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="57"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="58" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1872,31 +1871,31 @@
       <c r="I15" s="42"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="42"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="63" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -1907,20 +1906,18 @@
       <c r="I18" s="27"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="64" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="59"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -1931,415 +1928,395 @@
       <c r="I20" s="27"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="42"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="42"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
+      <c r="A28" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="42"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="A31" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="42"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
+      <c r="A34" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="69"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="70"/>
+      <c r="A36" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="69"/>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" s="38"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="72"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="79"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="91"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="98"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="80"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="73" t="s">
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="107"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="99"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="115"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="83"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="88"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="92"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="99"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="108"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="116"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="122"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="123" t="s">
+      <c r="A45" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="124" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" ht="14.25" hidden="1" customHeight="1">
+      <c r="A46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="I46" s="124"/>
+    </row>
+    <row r="47" ht="6.0" customHeight="1">
+      <c r="A47" s="64"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" ht="14.25" hidden="1" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="I48" s="125"/>
-    </row>
-    <row r="49" ht="6.0" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="126" t="s">
+      <c r="A48" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="127" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="24"/>
+      <c r="I48" s="42"/>
+    </row>
+    <row r="49" ht="19.5" hidden="1" customHeight="1">
+      <c r="A49" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="42"/>
+    </row>
+    <row r="50" ht="20.25" hidden="1" customHeight="1">
+      <c r="A50" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="134" t="s">
+        <v>50</v>
+      </c>
       <c r="E50" s="24"/>
       <c r="F50" s="42"/>
-      <c r="G50" s="127" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="24"/>
+      <c r="G50" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="134" t="s">
+        <v>52</v>
+      </c>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1">
-      <c r="A51" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="131" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="127" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" s="42"/>
-    </row>
-    <row r="52" ht="20.25" customHeight="1">
-      <c r="A52" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="135" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="135" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="42"/>
-    </row>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
     <row r="53" ht="14.25" customHeight="1"/>
     <row r="54" ht="14.25" customHeight="1"/>
     <row r="55" ht="14.25" customHeight="1"/>
@@ -3286,85 +3263,80 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="A34:I35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A28:I29"/>
-    <mergeCell ref="A30:I30"/>
+  <mergeCells count="60">
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="A18:I19"/>
     <mergeCell ref="A20:I21"/>
-    <mergeCell ref="A22:I23"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A25:I26"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A47:E49"/>
-    <mergeCell ref="F47:I49"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A31:I32"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A23:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A32:I33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I30"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="A45:E47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F45:I47"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A18:I19"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A16:I16"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:I5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A16:I17"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I5"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
+      <formula1>$Z$4:$Z$136</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B8">
-      <formula1>$W$4:$W$32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
-      <formula1>$Z$4:$Z$138</formula1>
+      <formula1>$W$4:$W$30</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
